--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B4CA4-50CA-F74F-86ED-5E59081CF6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684204E-D27D-304E-B661-E7969A74C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="10240" windowWidth="50000" windowHeight="28300" activeTab="4" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="11600" yWindow="5200" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="115">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -363,9 +363,6 @@
     <t>market for natural gas, burned in gas motor, for storage</t>
   </si>
   <si>
-    <t>includle burning emission, 1 kg natural gas = 24.624 MJ (see Ecoinvent: market for natural gas liquids)</t>
-  </si>
-  <si>
     <t>market for naphtha</t>
   </si>
   <si>
@@ -385,13 +382,29 @@
   </si>
   <si>
     <t>market for petroleum</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, natural gas, mini-plant 2KW electrical</t>
+  </si>
+  <si>
+    <t>1 kg natural gas/CH4 = 54.2100427046263 MJ (arbitrary value, natural gas: 42-55 MJ/kg [source: https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx], CH4: 55.5 MJ/kg [source: BioSTEAM], note by comparing CHP of different size, we can see the size does not have a relationship with LCIA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +437,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -442,20 +468,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -780,7 +818,7 @@
     <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="86.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="201.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -1051,13 +1089,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1098,11 +1136,11 @@
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1111,11 +1149,11 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1355,13 +1393,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>48</v>
@@ -1369,13 +1407,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>48</v>
@@ -1383,13 +1421,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -1408,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,16 +1895,15 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>3.50916624E-4</v>
+        <v>3.2652877122704623E-4</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>3.1582496160000002E-4</v>
+        <v>2.9387589410434159E-4</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>3.8600828640000004E-4</v>
+        <v>3.5918164834975087E-4</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -2379,7 +2416,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
@@ -2404,7 +2441,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
@@ -2429,7 +2466,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
@@ -2464,7 +2501,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2912,16 +2949,15 @@
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>8.3822558399999997E-2</v>
+        <v>8.6654753263345194E-2</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>7.5440302560000005E-2</v>
+        <v>7.7989277937010673E-2</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>9.2204814240000002E-2</v>
+        <v>9.5320228589679715E-2</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -3434,7 +3470,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -3459,7 +3495,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -3484,7 +3520,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
@@ -3518,7 +3554,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3964,16 +4000,15 @@
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>6.3446198400000001E-2</v>
+        <v>0.10460911940711742</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>5.7101578560000005E-2</v>
+        <v>9.4148207466405689E-2</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>6.979081824000001E-2</v>
+        <v>0.11507003134782917</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -4486,7 +4521,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
@@ -4511,7 +4546,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>22</v>
@@ -4536,7 +4571,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>22</v>
@@ -4569,8 +4604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5017,16 +5052,15 @@
         <v>23</v>
       </c>
       <c r="C18" s="4">
-        <f>C36*24.624</f>
-        <v>7.2539841599999995E-5</v>
+        <v>7.5964532841992879E-5</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>6.5285857439999992E-5</v>
+        <v>6.8368079557793587E-5</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>7.9793825759999997E-5</v>
+        <v>8.3560986126192171E-5</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -5539,7 +5573,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
@@ -5564,7 +5598,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
@@ -5589,7 +5623,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -5620,10 +5654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5632,6 +5666,10 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -6035,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
@@ -6059,8 +6097,9 @@
       <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
@@ -6068,7 +6107,6 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
         <v>1.584234288</v>
       </c>
       <c r="D18" s="2">
@@ -6085,8 +6123,11 @@
       <c r="G18" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -6110,8 +6151,9 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>88</v>
       </c>
@@ -6135,8 +6177,10 @@
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J20" s="6"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>98</v>
       </c>
@@ -6161,8 +6205,9 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>103</v>
       </c>
@@ -6187,8 +6232,9 @@
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -6213,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
@@ -6238,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -6263,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -6287,8 +6333,9 @@
       <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
@@ -6313,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>89</v>
       </c>
@@ -6338,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
@@ -6363,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
@@ -6387,8 +6434,9 @@
       <c r="G30" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -6412,8 +6460,9 @@
       <c r="G31" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
@@ -6437,8 +6486,9 @@
       <c r="G32" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -6462,8 +6512,9 @@
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -6488,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -6512,8 +6563,9 @@
       <c r="G35" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -6538,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -6563,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>102</v>
       </c>
@@ -6588,9 +6640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
@@ -6613,9 +6665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
@@ -6638,9 +6690,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -6662,6 +6714,77 @@
       <c r="G41" s="2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N44" s="10"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+    </row>
+    <row r="50" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+    </row>
+    <row r="52" spans="7:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="G52" s="6"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+    </row>
+    <row r="55" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="N58" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6673,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7121,16 +7244,15 @@
         <v>24</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>1.2338347679999998E-7</v>
+        <v>1.3692372586334518E-7</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>1.1104512911999998E-7</v>
+        <v>1.2323135327701067E-7</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>1.3572182447999999E-7</v>
+        <v>1.5061609844967972E-7</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -7643,7 +7765,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
@@ -7668,7 +7790,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
@@ -7693,7 +7815,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
@@ -7726,8 +7848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8174,16 +8296,15 @@
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>9.7373145599999994E-4</v>
+        <v>1.1151547884768684E-3</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>8.7635831040000002E-4</v>
+        <v>1.0036393096291816E-3</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>1.0711046016000001E-3</v>
+        <v>1.2266702673245553E-3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -8696,7 +8817,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
@@ -8721,7 +8842,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>25</v>
@@ -8746,7 +8867,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
@@ -8780,7 +8901,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9226,16 +9347,15 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>6.6642393600000003E-4</v>
+        <v>1.4452397385053379E-3</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>5.9978154239999999E-4</v>
+        <v>1.3007157646548041E-3</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>7.3306632960000006E-4</v>
+        <v>1.5897637123558719E-3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -9748,7 +9868,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
@@ -9773,7 +9893,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>26</v>
@@ -9798,7 +9918,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>26</v>
@@ -9831,8 +9951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10278,16 +10398,15 @@
         <v>27</v>
       </c>
       <c r="C18" s="2">
-        <f>C36*24.624</f>
-        <v>3.6320399999999995</v>
+        <v>3.5066850324341634</v>
       </c>
       <c r="D18" s="2">
         <f>C18*0.9</f>
-        <v>3.2688359999999994</v>
+        <v>3.1560165291907469</v>
       </c>
       <c r="E18" s="2">
         <f>C18*1.1</f>
-        <v>3.9952439999999996</v>
+        <v>3.8573535356775799</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -10800,7 +10919,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>27</v>
@@ -10825,7 +10944,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>27</v>
@@ -10850,7 +10969,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>27</v>

--- a/exposan/htl/data/impact_items.xlsx
+++ b/exposan/htl/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/htl/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan-AJK/exposan/htl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D684204E-D27D-304E-B661-E7969A74C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9582E661-C30C-0844-8CD5-4B570C0AEAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="5200" windowWidth="28800" windowHeight="17500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="32700" yWindow="5440" windowWidth="18400" windowHeight="17500" activeTab="9" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="117">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>1 kg natural gas/CH4 = 54.2100427046263 MJ (arbitrary value, natural gas: 42-55 MJ/kg [source: https://world-nuclear.org/information-library/facts-and-figures/heat-values-of-various-fuels.aspx], CH4: 55.5 MJ/kg [source: BioSTEAM], note by comparing CHP of different size, we can see the size does not have a relationship with LCIA)</t>
+  </si>
+  <si>
+    <t>HCl</t>
+  </si>
+  <si>
+    <t>market for hydrochloric acid, without water, in 30% solution state</t>
   </si>
 </sst>
 </file>
@@ -510,9 +516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +556,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -656,7 +662,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,7 +804,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,27 +1030,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -1052,99 +1058,100 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1157,27 +1164,26 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>48</v>
@@ -1185,13 +1191,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>48</v>
@@ -1199,27 +1205,27 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>33</v>
@@ -1227,13 +1233,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>33</v>
@@ -1241,44 +1247,44 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>33</v>
@@ -1286,13 +1292,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>33</v>
@@ -1300,61 +1306,61 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -1362,58 +1368,58 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>48</v>
@@ -1421,22 +1427,36 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1444,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,7 +1519,7 @@
         <v>2.4101462545071508E-3</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E15" si="1">C2*1.1</f>
+        <f t="shared" ref="E2:E16" si="1">C2*1.1</f>
         <v>2.9457343110642956E-3</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1671,7 +1691,7 @@
         <v>2.8777999999999998E-3</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D15" si="5">C9*0.9</f>
+        <f t="shared" ref="D9:D16" si="5">C9*0.9</f>
         <v>2.5900199999999997E-3</v>
       </c>
       <c r="E9" s="2">
@@ -1693,7 +1713,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="4">
-        <f>0.001868/20+19/20*C24</f>
+        <f>0.001868/20+19/20*C25</f>
         <v>9.405486350000001E-5</v>
       </c>
       <c r="D10" s="2">
@@ -1788,97 +1808,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
+        <v>1.9940179000000001E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="6">C14*0.9</f>
+        <v>1.7946161100000002E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="7">C14*1.1</f>
+        <v>2.1934196900000005E-3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
         <v>2.4543E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="5"/>
         <v>2.2088699999999999E-3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>2.69973E-3</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>1.8387E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="5"/>
         <v>1.6548299999999999E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>2.02257E-3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.0013177*115.03/245.41</f>
         <v>-6.1763999429526105E-4</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="8">C17*0.9</f>
         <v>-5.5587599486573499E-4</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="9">C17*1.1</f>
         <v>-6.7940399372478722E-4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-3.1315000000000002E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>-2.8183500000000003E-3</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="7"/>
-        <v>-3.4446500000000005E-3</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -1889,21 +1909,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>3.2652877122704623E-4</v>
+        <v>-3.1315000000000002E-3</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>2.9387589410434159E-4</v>
+        <f t="shared" si="8"/>
+        <v>-2.8183500000000003E-3</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>3.5918164834975087E-4</v>
+        <f t="shared" si="9"/>
+        <v>-3.4446500000000005E-3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -1914,21 +1934,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>1.3397999999999999E-3</v>
+        <v>3.2652877122704623E-4</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.20582E-3</v>
+        <v>2.9387589410434159E-4</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>1.4737800000000001E-3</v>
+        <v>3.5918164834975087E-4</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -1939,21 +1959,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>-1.1096000000000001E-3</v>
+        <v>1.3397999999999999E-3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>-9.9864000000000007E-4</v>
+        <v>1.20582E-3</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>-1.2205600000000001E-3</v>
+        <v>1.4737800000000001E-3</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -1964,22 +1984,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>3.5171796523975174</v>
+        <v>-1.1096000000000001E-3</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>3.1654616871577659</v>
+        <v>-9.9864000000000007E-4</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>3.8688976176372694</v>
+        <v>-1.2205600000000001E-3</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -1990,22 +2009,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>2.0775408907641003E-2</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>3.5171796523975174</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>1.8697868016876902E-2</v>
+        <v>3.1654616871577659</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>2.2852949798405103E-2</v>
+        <v>3.8688976176372694</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -2016,21 +2035,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2">
-        <v>2.7805E-3</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>2.0775408907641003E-2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="8">C23*0.9</f>
-        <v>2.5024500000000002E-3</v>
+        <f>C23*0.9</f>
+        <v>1.8697868016876902E-2</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="9">C23*1.1</f>
-        <v>3.0585500000000002E-3</v>
+        <f>C23*1.1</f>
+        <v>2.2852949798405103E-2</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -2041,21 +2061,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4">
-        <v>6.8932999999999999E-7</v>
+      <c r="C24" s="2">
+        <v>2.7805E-3</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>6.2039700000000005E-7</v>
+        <f t="shared" ref="D24:D39" si="10">C24*0.9</f>
+        <v>2.5024500000000002E-3</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="9"/>
-        <v>7.5826300000000004E-7</v>
+        <f t="shared" ref="E24:E39" si="11">C24*1.1</f>
+        <v>3.0585500000000002E-3</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -2066,21 +2086,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2">
-        <v>4.4926000000000002E-3</v>
+      <c r="C25" s="4">
+        <v>6.8932999999999999E-7</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>4.0433400000000003E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.2039700000000005E-7</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
-        <v>4.941860000000001E-3</v>
+        <f t="shared" si="11"/>
+        <v>7.5826300000000004E-7</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -2091,21 +2111,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2">
-        <v>5.9407000000000001E-2</v>
+        <v>4.4926000000000002E-3</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>5.3466300000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.0433400000000003E-3</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="9"/>
-        <v>6.5347700000000009E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.941860000000001E-3</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -2116,21 +2136,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>9.9498000000000003E-2</v>
+        <v>5.9407000000000001E-2</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>8.9548200000000008E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.3466300000000001E-2</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="9"/>
-        <v>0.10944780000000001</v>
+        <f t="shared" si="11"/>
+        <v>6.5347700000000009E-2</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -2141,21 +2161,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>2.2545E-3</v>
+        <v>9.9498000000000003E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>2.0290500000000001E-3</v>
+        <f t="shared" si="10"/>
+        <v>8.9548200000000008E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
-        <v>2.4799500000000003E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.10944780000000001</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -2166,21 +2186,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>3.6698E-3</v>
+        <v>2.2545E-3</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
-        <v>3.3028200000000001E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.0290500000000001E-3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="9"/>
-        <v>4.0367800000000002E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.4799500000000003E-3</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -2191,21 +2211,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="2">
-        <v>1.1096000000000001E-3</v>
+        <v>3.6698E-3</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
-        <v>9.9864000000000007E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.3028200000000001E-3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
-        <v>1.2205600000000001E-3</v>
+        <f t="shared" si="11"/>
+        <v>4.0367800000000002E-3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -2216,21 +2236,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>4.8919000000000002E-3</v>
+        <v>1.1096000000000001E-3</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
-        <v>4.4027100000000007E-3</v>
+        <f t="shared" si="10"/>
+        <v>9.9864000000000007E-4</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="9"/>
-        <v>5.3810900000000007E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.2205600000000001E-3</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -2241,21 +2261,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>597.08000000000004</v>
+        <v>4.8919000000000002E-3</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
-        <v>537.37200000000007</v>
+        <f t="shared" si="10"/>
+        <v>4.4027100000000007E-3</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="9"/>
-        <v>656.78800000000012</v>
+        <f t="shared" si="11"/>
+        <v>5.3810900000000007E-3</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -2266,21 +2286,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="2">
-        <v>1.9113999999999999E-3</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
-        <v>1.7202599999999999E-3</v>
+        <f t="shared" si="10"/>
+        <v>537.37200000000007</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="9"/>
-        <v>2.10254E-3</v>
+        <f t="shared" si="11"/>
+        <v>656.78800000000012</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -2291,21 +2311,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="2">
-        <v>8.4699000000000005E-4</v>
+        <v>1.9113999999999999E-3</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="8"/>
-        <v>7.6229100000000001E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.7202599999999999E-3</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="9"/>
-        <v>9.3168900000000008E-4</v>
+        <f t="shared" si="11"/>
+        <v>2.10254E-3</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -2316,21 +2336,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4">
-        <v>5.0587999999999997E-5</v>
+      <c r="C35" s="2">
+        <v>8.4699000000000005E-4</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="8"/>
-        <v>4.5529199999999998E-5</v>
+        <f t="shared" si="10"/>
+        <v>7.6229100000000001E-4</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="9"/>
-        <v>5.5646800000000004E-5</v>
+        <f t="shared" si="11"/>
+        <v>9.3168900000000008E-4</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -2341,21 +2361,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="4">
-        <v>1.4251E-5</v>
+        <v>5.0587999999999997E-5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="8"/>
-        <v>1.28259E-5</v>
+        <f t="shared" si="10"/>
+        <v>4.5529199999999998E-5</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="9"/>
-        <v>1.5676100000000001E-5</v>
+        <f t="shared" si="11"/>
+        <v>5.5646800000000004E-5</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -2366,21 +2386,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="4">
-        <v>9.5338000000000001E-5</v>
+        <v>1.4251E-5</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="8"/>
-        <v>8.5804200000000008E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.28259E-5</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0487180000000001E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.5676100000000001E-5</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -2391,21 +2411,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="2">
-        <v>1.3397999999999999E-3</v>
+      <c r="C38" s="4">
+        <v>9.5338000000000001E-5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="8"/>
-        <v>1.20582E-3</v>
+        <f t="shared" si="10"/>
+        <v>8.5804200000000008E-5</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="9"/>
-        <v>1.4737800000000001E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.0487180000000001E-4</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -2416,21 +2436,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2">
-        <v>9.4609999999999996E-4</v>
+        <v>1.3397999999999999E-3</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="10">C39*0.9</f>
-        <v>8.5148999999999999E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.20582E-3</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="11">C39*1.1</f>
-        <v>1.04071E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.4737800000000001E-3</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -2441,21 +2461,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2">
-        <v>2.2075999999999999E-4</v>
+        <v>9.4609999999999996E-4</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="12">C40*0.9</f>
-        <v>1.98684E-4</v>
+        <v>8.5148999999999999E-4</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="13">C40*1.1</f>
-        <v>2.4283600000000002E-4</v>
+        <v>1.04071E-3</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -2466,26 +2486,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>6.8605999999999995E-4</v>
+        <v>2.2075999999999999E-4</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="14">C41*0.9</f>
-        <v>6.1745399999999992E-4</v>
+        <v>1.98684E-4</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="15">C41*1.1</f>
+        <v>2.4283600000000002E-4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6.8605999999999995E-4</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="16">C42*0.9</f>
+        <v>6.1745399999999992E-4</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="17">C42*1.1</f>
         <v>7.5466599999999997E-4</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2498,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2549,11 +2594,11 @@
         <v>0.45675404124296071</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D14" si="0">C2*0.9</f>
+        <f t="shared" ref="D2:D15" si="0">C2*0.9</f>
         <v>0.41107863711866466</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E14" si="1">C2*1.1</f>
+        <f t="shared" ref="E2:E15" si="1">C2*1.1</f>
         <v>0.50242944536725687</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2747,7 +2792,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="2">
-        <f>0.39136/20+19/20*C24</f>
+        <f>0.39136/20+19/20*C25</f>
         <v>1.9678921999999998E-2</v>
       </c>
       <c r="D10" s="2">
@@ -2842,97 +2887,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2">
+        <v>0.29714090999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="6">C14*0.9</f>
+        <v>0.26742681899999998</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="7">C14*1.1</f>
+        <v>0.32685500099999998</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.33656000000000003</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>0.30290400000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>0.37021600000000005</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.34682000000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <f>C15*0.9</f>
-        <v>0.31213800000000003</v>
-      </c>
-      <c r="E15" s="2">
-        <f>C15*1.1</f>
-        <v>0.38150200000000006</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2">
+        <v>0.34682000000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <f>C16*0.9</f>
+        <v>0.31213800000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <f>C16*1.1</f>
+        <v>0.38150200000000006</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
         <f>-0.26205*115.03/245.41</f>
         <v>-0.12282959740841858</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="8">C17*0.9</f>
         <v>-0.11054663766757672</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="9">C17*1.1</f>
         <v>-0.13511255714926043</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-0.72916999999999998</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>-0.65625299999999998</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="7"/>
-        <v>-0.80208699999999999</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -2943,46 +2988,46 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>8.6654753263345194E-2</v>
+        <v>-0.72916999999999998</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>7.7989277937010673E-2</v>
+        <f t="shared" si="8"/>
+        <v>-0.65625299999999998</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>9.5320228589679715E-2</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <f t="shared" si="9"/>
+        <v>-0.80208699999999999</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.158</v>
+        <v>8.6654753263345194E-2</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>0.14219999999999999</v>
+        <v>7.7989277937010673E-2</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>0.17380000000000001</v>
+        <v>9.5320228589679715E-2</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -2993,21 +3038,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.25163999999999997</v>
+        <v>0.158</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20" si="8">C20*0.9</f>
-        <v>-0.22647599999999998</v>
+        <f>C20*0.9</f>
+        <v>0.14219999999999999</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20" si="9">C20*1.1</f>
-        <v>-0.27680399999999999</v>
+        <f>C20*1.1</f>
+        <v>0.17380000000000001</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -3018,22 +3063,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>991.65279880402068</v>
+        <v>-0.25163999999999997</v>
       </c>
       <c r="D21" s="2">
-        <f>C21*0.9</f>
-        <v>892.48751892361861</v>
+        <f t="shared" ref="D21" si="10">C21*0.9</f>
+        <v>-0.22647599999999998</v>
       </c>
       <c r="E21" s="2">
-        <f>C21*1.1</f>
-        <v>1090.8180786844227</v>
+        <f t="shared" ref="E21" si="11">C21*1.1</f>
+        <v>-0.27680399999999999</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -3044,22 +3088,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>4.0451319859820005</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>991.65279880402068</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>3.6406187873838007</v>
+        <v>892.48751892361861</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>4.4496451845802012</v>
+        <v>1090.8180786844227</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -3070,21 +3114,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>0.59950999999999999</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>4.0451319859820005</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D37" si="10">C23*0.9</f>
-        <v>0.53955900000000001</v>
+        <f>C23*0.9</f>
+        <v>3.6406187873838007</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E34" si="11">C23*1.1</f>
-        <v>0.65946100000000007</v>
+        <f>C23*1.1</f>
+        <v>4.4496451845802012</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -3095,21 +3140,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>1.1676E-4</v>
+        <v>0.59950999999999999</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>1.05084E-4</v>
+        <f t="shared" ref="D24:D38" si="12">C24*0.9</f>
+        <v>0.53955900000000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="11"/>
-        <v>1.28436E-4</v>
+        <f t="shared" ref="E24:E35" si="13">C24*1.1</f>
+        <v>0.65946100000000007</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -3120,21 +3165,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>0.87048999999999999</v>
+        <v>1.1676E-4</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>0.78344100000000005</v>
+        <f t="shared" si="12"/>
+        <v>1.05084E-4</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>0.95753900000000003</v>
+        <f t="shared" si="13"/>
+        <v>1.28436E-4</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -3145,21 +3190,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>10.629</v>
+        <v>0.87048999999999999</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>9.5661000000000005</v>
+        <f t="shared" si="12"/>
+        <v>0.78344100000000005</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>11.6919</v>
+        <f t="shared" si="13"/>
+        <v>0.95753900000000003</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -3170,21 +3215,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>19.785</v>
+        <v>10.629</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>17.8065</v>
+        <f t="shared" si="12"/>
+        <v>9.5661000000000005</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>21.763500000000001</v>
+        <f t="shared" si="13"/>
+        <v>11.6919</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -3195,21 +3240,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="2">
-        <v>0.47893999999999998</v>
+        <v>19.785</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>0.43104599999999998</v>
+        <f t="shared" si="12"/>
+        <v>17.8065</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>0.52683400000000002</v>
+        <f t="shared" si="13"/>
+        <v>21.763500000000001</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -3220,21 +3265,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="2">
-        <v>0.81013999999999997</v>
+        <v>0.47893999999999998</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>0.72912599999999994</v>
+        <f t="shared" si="12"/>
+        <v>0.43104599999999998</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>0.891154</v>
+        <f t="shared" si="13"/>
+        <v>0.52683400000000002</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -3245,21 +3290,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="2">
-        <v>0.25163999999999997</v>
+        <v>0.81013999999999997</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>0.22647599999999998</v>
+        <f t="shared" si="12"/>
+        <v>0.72912599999999994</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>0.27680399999999999</v>
+        <f t="shared" si="13"/>
+        <v>0.891154</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -3270,21 +3315,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="2">
-        <v>0.99434</v>
+        <v>0.25163999999999997</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>0.89490599999999998</v>
+        <f t="shared" si="12"/>
+        <v>0.22647599999999998</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>1.093774</v>
+        <f t="shared" si="13"/>
+        <v>0.27680399999999999</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -3295,21 +3340,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="2">
-        <v>168410</v>
+        <v>0.99434</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>151569</v>
+        <f t="shared" si="12"/>
+        <v>0.89490599999999998</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>185251.00000000003</v>
+        <f t="shared" si="13"/>
+        <v>1.093774</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -3320,21 +3365,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="2">
-        <v>0.24282000000000001</v>
+        <v>168410</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>0.21853800000000001</v>
+        <f t="shared" si="12"/>
+        <v>151569</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>0.26710200000000001</v>
+        <f t="shared" si="13"/>
+        <v>185251.00000000003</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -3345,21 +3390,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>9.8525000000000001E-2</v>
+        <v>0.24282000000000001</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>8.8672500000000001E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.21853800000000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>0.10837750000000002</v>
+        <f t="shared" si="13"/>
+        <v>0.26710200000000001</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -3370,21 +3415,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="2">
-        <v>8.2527999999999994E-3</v>
+        <v>9.8525000000000001E-2</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>7.42752E-3</v>
+        <f t="shared" si="12"/>
+        <v>8.8672500000000001E-2</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ref="E35:E37" si="12">C35*1.1</f>
-        <v>9.0780800000000005E-3</v>
+        <f t="shared" si="13"/>
+        <v>0.10837750000000002</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -3395,21 +3440,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="2">
-        <v>3.4041000000000002E-3</v>
+        <v>8.2527999999999994E-3</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>3.0636900000000004E-3</v>
+        <f t="shared" si="12"/>
+        <v>7.42752E-3</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="12"/>
-        <v>3.7445100000000004E-3</v>
+        <f t="shared" ref="E36:E38" si="14">C36*1.1</f>
+        <v>9.0780800000000005E-3</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -3420,21 +3465,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>2.0161999999999999E-2</v>
+        <v>3.4041000000000002E-3</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>1.81458E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.0636900000000004E-3</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="12"/>
-        <v>2.2178200000000002E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.7445100000000004E-3</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -3445,21 +3490,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>0.158</v>
+        <v>2.0161999999999999E-2</v>
       </c>
       <c r="D38" s="2">
-        <f>C38*0.9</f>
-        <v>0.14219999999999999</v>
+        <f t="shared" si="12"/>
+        <v>1.81458E-2</v>
       </c>
       <c r="E38" s="2">
-        <f>C38*1.1</f>
-        <v>0.17380000000000001</v>
+        <f t="shared" si="14"/>
+        <v>2.2178200000000002E-2</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -3470,21 +3515,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="2">
-        <v>-0.21812999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="D39" s="2">
         <f>C39*0.9</f>
-        <v>-0.19631699999999999</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="E39" s="2">
         <f>C39*1.1</f>
-        <v>-0.23994300000000002</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -3495,21 +3540,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="2">
-        <v>0.12698000000000001</v>
+        <v>-0.21812999999999999</v>
       </c>
       <c r="D40" s="2">
         <f>C40*0.9</f>
-        <v>0.11428200000000001</v>
+        <v>-0.19631699999999999</v>
       </c>
       <c r="E40" s="2">
         <f>C40*1.1</f>
-        <v>0.13967800000000002</v>
+        <v>-0.23994300000000002</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -3520,26 +3565,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="2">
-        <v>0.16170000000000001</v>
+        <v>0.12698000000000001</v>
       </c>
       <c r="D41" s="2">
         <f>C41*0.9</f>
-        <v>0.14553000000000002</v>
+        <v>0.11428200000000001</v>
       </c>
       <c r="E41" s="2">
         <f>C41*1.1</f>
+        <v>0.13967800000000002</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="D42" s="2">
+        <f>C42*0.9</f>
+        <v>0.14553000000000002</v>
+      </c>
+      <c r="E42" s="2">
+        <f>C42*1.1</f>
         <v>0.17787000000000003</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3551,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3651,11 +3721,11 @@
         <v>3736.8</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D17" si="2">C4*0.9</f>
+        <f t="shared" ref="D4:D18" si="2">C4*0.9</f>
         <v>3363.1200000000003</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E17" si="3">C4*1.1</f>
+        <f t="shared" ref="E4:E18" si="3">C4*1.1</f>
         <v>4110.4800000000005</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -3798,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <f>1.3029/20+19/20*C24</f>
+        <f>1.3029/20+19/20*C25</f>
         <v>6.9909344999999998E-2</v>
       </c>
       <c r="D10" s="2">
@@ -3893,147 +3963,147 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
+        <v>0.84142563999999997</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="6">C14*0.9</f>
+        <v>0.757283076</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="7">C14*1.1</f>
+        <v>0.92556820400000006</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.77271999999999996</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>0.69544799999999996</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>0.84999200000000008</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>0.90305000000000002</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>0.81274500000000005</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>0.9933550000000001</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.57519*115.03/245.41</f>
         <v>-0.2696063962348722</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>-0.24264575661138499</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>-0.29656703585835947</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>-3.4746000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>-3.1271400000000003</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>-3.8220600000000005</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.10460911940711742</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>9.4148207466405689E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>0.11507003134782917</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>0.26663999999999999</v>
+        <v>0.10460911940711742</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>0.23997599999999999</v>
+        <v>9.4148207466405689E-2</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>0.29330400000000001</v>
+        <v>0.11507003134782917</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -4044,21 +4114,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.18748000000000001</v>
+        <v>0.26663999999999999</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20" si="6">C20*0.9</f>
-        <v>-0.16873200000000002</v>
+        <f>C20*0.9</f>
+        <v>0.23997599999999999</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20" si="7">C20*1.1</f>
-        <v>-0.20622800000000002</v>
+        <f>C20*1.1</f>
+        <v>0.29330400000000001</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -4069,22 +4139,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>15371.081540660998</v>
+        <v>-0.18748000000000001</v>
       </c>
       <c r="D21" s="2">
-        <f>C21*0.9</f>
-        <v>13833.973386594898</v>
+        <f t="shared" ref="D21" si="8">C21*0.9</f>
+        <v>-0.16873200000000002</v>
       </c>
       <c r="E21" s="2">
-        <f>C21*1.1</f>
-        <v>16908.189694727098</v>
+        <f t="shared" ref="E21" si="9">C21*1.1</f>
+        <v>-0.20622800000000002</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -4095,22 +4164,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>50.259645794350007</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>15371.081540660998</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>45.233681214915009</v>
+        <v>13833.973386594898</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>55.285610373785012</v>
+        <v>16908.189694727098</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -4121,21 +4190,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>1.7233000000000001</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>50.259645794350007</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
-        <v>1.5509700000000002</v>
+        <f>C23*0.9</f>
+        <v>45.233681214915009</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
-        <v>1.8956300000000001</v>
+        <f>C23*1.1</f>
+        <v>55.285610373785012</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -4146,21 +4216,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>5.0150999999999998E-3</v>
+        <v>1.7233000000000001</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>4.5135899999999996E-3</v>
+        <f t="shared" ref="D24:D38" si="10">C24*0.9</f>
+        <v>1.5509700000000002</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="9"/>
-        <v>5.5166099999999999E-3</v>
+        <f t="shared" ref="E24:E38" si="11">C24*1.1</f>
+        <v>1.8956300000000001</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -4171,21 +4241,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>2.5164</v>
+        <v>5.0150999999999998E-3</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>2.2647599999999999</v>
+        <f t="shared" si="10"/>
+        <v>4.5135899999999996E-3</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
-        <v>2.7680400000000001</v>
+        <f t="shared" si="11"/>
+        <v>5.5166099999999999E-3</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -4196,21 +4266,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>303.18</v>
+        <v>2.5164</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>272.86200000000002</v>
+        <f t="shared" si="10"/>
+        <v>2.2647599999999999</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="9"/>
-        <v>333.49800000000005</v>
+        <f t="shared" si="11"/>
+        <v>2.7680400000000001</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -4221,21 +4291,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>85.906000000000006</v>
+        <v>303.18</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>77.315400000000011</v>
+        <f t="shared" si="10"/>
+        <v>272.86200000000002</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="9"/>
-        <v>94.496600000000015</v>
+        <f t="shared" si="11"/>
+        <v>333.49800000000005</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -4246,21 +4316,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>2.8032000000000001E-2</v>
+        <v>85.906000000000006</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>2.5228800000000003E-2</v>
+        <f t="shared" si="10"/>
+        <v>77.315400000000011</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
-        <v>3.0835200000000004E-2</v>
+        <f t="shared" si="11"/>
+        <v>94.496600000000015</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -4271,21 +4341,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>0.42747000000000002</v>
+        <v>2.8032000000000001E-2</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
-        <v>0.38472300000000004</v>
+        <f t="shared" si="10"/>
+        <v>2.5228800000000003E-2</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="9"/>
-        <v>0.47021700000000005</v>
+        <f t="shared" si="11"/>
+        <v>3.0835200000000004E-2</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -4296,21 +4366,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>0.18748000000000001</v>
+        <v>0.42747000000000002</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
-        <v>0.16873200000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.38472300000000004</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
-        <v>0.20622800000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.47021700000000005</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -4321,21 +4391,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="2">
-        <v>3.0363000000000002</v>
+        <v>0.18748000000000001</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
-        <v>2.7326700000000002</v>
+        <f t="shared" si="10"/>
+        <v>0.16873200000000002</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3399300000000007</v>
+        <f t="shared" si="11"/>
+        <v>0.20622800000000002</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -4346,21 +4416,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>2612400</v>
+        <v>3.0363000000000002</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
-        <v>2351160</v>
+        <f t="shared" si="10"/>
+        <v>2.7326700000000002</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="9"/>
-        <v>2873640</v>
+        <f t="shared" si="11"/>
+        <v>3.3399300000000007</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -4371,21 +4441,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
-        <v>0.57521</v>
+        <v>2612400</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
-        <v>0.51768900000000007</v>
+        <f t="shared" si="10"/>
+        <v>2351160</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="9"/>
-        <v>0.63273100000000004</v>
+        <f t="shared" si="11"/>
+        <v>2873640</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -4396,21 +4466,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>0.1681</v>
+        <v>0.57521</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="8"/>
-        <v>0.15129000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.51768900000000007</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="9"/>
-        <v>0.18491000000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.63273100000000004</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -4421,21 +4491,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <v>2.5760999999999999E-2</v>
+        <v>0.1681</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3184900000000001E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.15129000000000001</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="9"/>
-        <v>2.83371E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.18491000000000002</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -4446,21 +4516,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="2">
-        <v>2.5766000000000001E-3</v>
+        <v>2.5760999999999999E-2</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3189400000000002E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.3184900000000001E-2</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="9"/>
-        <v>2.8342600000000003E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.83371E-2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -4471,21 +4541,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>5.0719E-2</v>
+        <v>2.5766000000000001E-3</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="8"/>
-        <v>4.5647100000000003E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.3189400000000002E-3</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="9"/>
-        <v>5.5790900000000004E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.8342600000000003E-3</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -4496,21 +4566,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>0.26663999999999999</v>
+        <v>5.0719E-2</v>
       </c>
       <c r="D38" s="2">
-        <f>C38*0.9</f>
-        <v>0.23997599999999999</v>
+        <f t="shared" si="10"/>
+        <v>4.5647100000000003E-2</v>
       </c>
       <c r="E38" s="2">
-        <f>C38*1.1</f>
-        <v>0.29330400000000001</v>
+        <f t="shared" si="11"/>
+        <v>5.5790900000000004E-2</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -4521,21 +4591,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>0.15887000000000001</v>
+        <v>0.26663999999999999</v>
       </c>
       <c r="D39" s="2">
         <f>C39*0.9</f>
-        <v>0.14298300000000003</v>
+        <v>0.23997599999999999</v>
       </c>
       <c r="E39" s="2">
         <f>C39*1.1</f>
-        <v>0.17475700000000002</v>
+        <v>0.29330400000000001</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -4546,21 +4616,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>0.25445000000000001</v>
+        <v>0.15887000000000001</v>
       </c>
       <c r="D40" s="2">
         <f>C40*0.9</f>
-        <v>0.22900500000000001</v>
+        <v>0.14298300000000003</v>
       </c>
       <c r="E40" s="2">
         <f>C40*1.1</f>
-        <v>0.27989500000000006</v>
+        <v>0.17475700000000002</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -4571,26 +4641,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="2">
-        <v>0.10666</v>
+        <v>0.25445000000000001</v>
       </c>
       <c r="D41" s="2">
         <f>C41*0.9</f>
-        <v>9.599400000000001E-2</v>
+        <v>0.22900500000000001</v>
       </c>
       <c r="E41" s="2">
         <f>C41*1.1</f>
+        <v>0.27989500000000006</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.10666</v>
+      </c>
+      <c r="D42" s="2">
+        <f>C42*0.9</f>
+        <v>9.599400000000001E-2</v>
+      </c>
+      <c r="E42" s="2">
+        <f>C42*1.1</f>
         <v>0.11732600000000001</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4602,10 +4697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4753,11 +4848,11 @@
         <v>8.3217999999999996E-4</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D15" si="2">C6*0.9</f>
+        <f t="shared" ref="D6:D16" si="2">C6*0.9</f>
         <v>7.4896199999999994E-4</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
+        <f t="shared" ref="E6:E16" si="3">C6*1.1</f>
         <v>9.1539799999999999E-4</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -4850,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="4">
-        <f>0.000079544/20+19/20*C24</f>
+        <f>0.000079544/20+19/20*C25</f>
         <v>4.0466411999999999E-6</v>
       </c>
       <c r="D10" s="2">
@@ -4945,97 +5040,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2">
+        <v>2.2349328999999999E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="6">C14*0.9</f>
+        <v>2.0114396099999999E-4</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="7">C14*1.1</f>
+        <v>2.4584261899999999E-4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
         <v>3.2907999999999999E-4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>2.9617199999999998E-4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>3.6198799999999999E-4</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>4.7381000000000003E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>4.2642900000000004E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>5.211910000000001E-3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.00037325*115.03/245.41</f>
         <v>-1.7495190701275417E-4</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16" si="6">C16*0.9</f>
-        <v>-1.5745671631147877E-4</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16" si="7">C16*1.1</f>
-        <v>-1.924470977140296E-4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-2.4632999999999999E-3</v>
-      </c>
       <c r="D17" s="2">
         <f t="shared" ref="D17" si="8">C17*0.9</f>
-        <v>-2.21697E-3</v>
+        <v>-1.5745671631147877E-4</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17" si="9">C17*1.1</f>
-        <v>-2.7096300000000002E-3</v>
+        <v>-1.924470977140296E-4</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -5046,46 +5141,46 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4">
-        <v>7.5964532841992879E-5</v>
+      <c r="C18" s="2">
+        <v>-2.4632999999999999E-3</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>6.8368079557793587E-5</v>
+        <f t="shared" ref="D18" si="10">C18*0.9</f>
+        <v>-2.21697E-3</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>8.3560986126192171E-5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <f t="shared" ref="E18" si="11">C18*1.1</f>
+        <v>-2.7096300000000002E-3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="4">
-        <v>9.4215000000000005E-5</v>
+        <v>7.5964532841992879E-5</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>8.4793500000000007E-5</v>
+        <v>6.8368079557793587E-5</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>1.0363650000000002E-4</v>
+        <v>8.3560986126192171E-5</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -5096,21 +5191,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
-        <v>-1.0547E-3</v>
+      <c r="C20" s="4">
+        <v>9.4215000000000005E-5</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>-9.4923000000000002E-4</v>
+        <v>8.4793500000000007E-5</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>-1.1601700000000001E-3</v>
+        <v>1.0363650000000002E-4</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -5121,22 +5216,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>0.45019206857310357</v>
+        <v>-1.0547E-3</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>0.4051728617157932</v>
+        <v>-9.4923000000000002E-4</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>0.49521127543041399</v>
+        <v>-1.1601700000000001E-3</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -5147,22 +5241,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>5.7494587842691998E-3</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>0.45019206857310357</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>5.1745129058422797E-3</v>
+        <v>0.4051728617157932</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>6.3244046626961198E-3</v>
+        <v>0.49521127543041399</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -5173,21 +5267,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>4.2278999999999998E-4</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>5.7494587842691998E-3</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
-        <v>3.8051099999999999E-4</v>
+        <f>C23*0.9</f>
+        <v>5.1745129058422797E-3</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
-        <v>4.6506900000000003E-4</v>
+        <f>C23*1.1</f>
+        <v>6.3244046626961198E-3</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -5198,21 +5293,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4">
-        <v>7.3095999999999995E-8</v>
+      <c r="C24" s="2">
+        <v>4.2278999999999998E-4</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>6.5786399999999999E-8</v>
+        <f t="shared" ref="D24:D39" si="12">C24*0.9</f>
+        <v>3.8051099999999999E-4</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="11"/>
-        <v>8.0405600000000004E-8</v>
+        <f t="shared" ref="E24:E39" si="13">C24*1.1</f>
+        <v>4.6506900000000003E-4</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -5223,21 +5318,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
-        <v>6.6304999999999999E-4</v>
+      <c r="C25" s="4">
+        <v>7.3095999999999995E-8</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>5.9674499999999998E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.5786399999999999E-8</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>7.29355E-4</v>
+        <f t="shared" si="13"/>
+        <v>8.0405600000000004E-8</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -5248,21 +5343,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>7.8753E-3</v>
+        <v>6.6304999999999999E-4</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>7.0877700000000002E-3</v>
+        <f t="shared" si="12"/>
+        <v>5.9674499999999998E-4</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>8.6628300000000016E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.29355E-4</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -5273,21 +5368,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>3.4404999999999998E-2</v>
+        <v>7.8753E-3</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>3.0964499999999999E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.0877700000000002E-3</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>3.7845500000000004E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.6628300000000016E-3</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -5298,21 +5393,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4">
-        <v>4.1992E-5</v>
+      <c r="C28" s="2">
+        <v>3.4404999999999998E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>3.7792800000000002E-5</v>
+        <f t="shared" si="12"/>
+        <v>3.0964499999999999E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>4.6191200000000006E-5</v>
+        <f t="shared" si="13"/>
+        <v>3.7845500000000004E-2</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -5323,21 +5418,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2">
-        <v>2.9415000000000001E-3</v>
+      <c r="C29" s="4">
+        <v>4.1992E-5</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>2.6473500000000001E-3</v>
+        <f t="shared" si="12"/>
+        <v>3.7792800000000002E-5</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>3.2356500000000005E-3</v>
+        <f t="shared" si="13"/>
+        <v>4.6191200000000006E-5</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -5348,21 +5443,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2">
-        <v>1.0547E-3</v>
+        <v>2.9415000000000001E-3</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>9.4923000000000002E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.6473500000000001E-3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>1.1601700000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.2356500000000005E-3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -5373,21 +5468,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>4.2365000000000002E-4</v>
+        <v>1.0547E-3</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>3.8128500000000003E-4</v>
+        <f t="shared" si="12"/>
+        <v>9.4923000000000002E-4</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>4.6601500000000007E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.1601700000000001E-3</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -5398,21 +5493,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2">
-        <v>76.453999999999994</v>
+        <v>4.2365000000000002E-4</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>68.808599999999998</v>
+        <f t="shared" si="12"/>
+        <v>3.8128500000000003E-4</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>84.099400000000003</v>
+        <f t="shared" si="13"/>
+        <v>4.6601500000000007E-4</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -5423,21 +5518,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="2">
-        <v>2.285E-4</v>
+        <v>76.453999999999994</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>2.0565000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>68.808599999999998</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>2.5135000000000001E-4</v>
+        <f t="shared" si="13"/>
+        <v>84.099400000000003</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -5448,21 +5543,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="4">
-        <v>6.1297999999999995E-5</v>
+      <c r="C34" s="2">
+        <v>2.285E-4</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5168199999999998E-5</v>
+        <f t="shared" si="12"/>
+        <v>2.0565000000000001E-4</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>6.7427800000000005E-5</v>
+        <f t="shared" si="13"/>
+        <v>2.5135000000000001E-4</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -5473,21 +5568,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="4">
-        <v>5.9869999999999996E-6</v>
+        <v>6.1297999999999995E-5</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>5.3882999999999997E-6</v>
+        <f t="shared" si="12"/>
+        <v>5.5168199999999998E-5</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>6.5857000000000003E-6</v>
+        <f t="shared" si="13"/>
+        <v>6.7427800000000005E-5</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -5498,21 +5593,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="4">
-        <v>2.9459E-6</v>
+        <v>5.9869999999999996E-6</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>2.6513100000000002E-6</v>
+        <f t="shared" si="12"/>
+        <v>5.3882999999999997E-6</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>3.2404900000000003E-6</v>
+        <f t="shared" si="13"/>
+        <v>6.5857000000000003E-6</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -5523,21 +5618,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="4">
-        <v>1.5750999999999999E-5</v>
+        <v>2.9459E-6</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>1.4175899999999999E-5</v>
+        <f t="shared" si="12"/>
+        <v>2.6513100000000002E-6</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.73261E-5</v>
+        <f t="shared" si="13"/>
+        <v>3.2404900000000003E-6</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -5548,21 +5643,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="4">
-        <v>9.4215000000000005E-5</v>
+        <v>1.5750999999999999E-5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>8.4793500000000007E-5</v>
+        <f t="shared" si="12"/>
+        <v>1.4175899999999999E-5</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0363650000000002E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.73261E-5</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -5573,21 +5668,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="2">
-        <v>1.0594000000000001E-3</v>
+      <c r="C39" s="4">
+        <v>9.4215000000000005E-5</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="12">C39*0.9</f>
-        <v>9.5346000000000005E-4</v>
+        <f t="shared" si="12"/>
+        <v>8.4793500000000007E-5</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="13">C39*1.1</f>
-        <v>1.1653400000000002E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.0363650000000002E-4</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -5598,21 +5693,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="2">
-        <v>2.4900999999999998E-4</v>
+        <v>1.0594000000000001E-3</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="14">C40*0.9</f>
-        <v>2.2410899999999998E-4</v>
+        <v>9.5346000000000005E-4</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="15">C40*1.1</f>
-        <v>2.73911E-4</v>
+        <v>1.1653400000000002E-3</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -5623,26 +5718,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2">
-        <v>9.6885999999999999E-4</v>
+        <v>2.4900999999999998E-4</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="16">C41*0.9</f>
-        <v>8.7197399999999997E-4</v>
+        <v>2.2410899999999998E-4</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>2.73911E-4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.6885999999999999E-4</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="18">C42*0.9</f>
+        <v>8.7197399999999997E-4</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="19">C42*1.1</f>
         <v>1.065746E-3</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5654,10 +5774,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:K26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5807,11 +5927,11 @@
         <v>4.8562000000000003</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D15" si="2">C6*0.9</f>
+        <f t="shared" ref="D6:D16" si="2">C6*0.9</f>
         <v>4.3705800000000004</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E15" si="3">C6*1.1</f>
+        <f t="shared" ref="E6:E16" si="3">C6*1.1</f>
         <v>5.3418200000000011</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -5904,7 +6024,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <f>0.15837/20+19/20*C24</f>
+        <f>0.15837/20+19/20*C25</f>
         <v>8.2056660000000003E-3</v>
       </c>
       <c r="D10" s="2">
@@ -5999,151 +6119,148 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
+        <v>0.87300274</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="6">C14*0.9</f>
+        <v>0.78570246600000004</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="7">C14*1.1</f>
+        <v>0.96030301400000007</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
         <v>1.2514000000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>1.12626</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>1.3765400000000001</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>1.5249999999999999</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>1.3725000000000001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>1.6775</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.89786*115.03/245.41</f>
         <v>-0.42085015199054648</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="6">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="8">C17*0.9</f>
         <v>-0.37876513679149182</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="7">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="9">C17*1.1</f>
         <v>-0.46293516718960115</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="F17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-1.2499</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="6"/>
-        <v>-1.1249100000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="7"/>
-        <v>-1.3748900000000002</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>1.584234288</v>
+        <v>-1.2499</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>1.4258108592000001</v>
+        <f t="shared" si="8"/>
+        <v>-1.1249100000000001</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>1.7426577168000001</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6"/>
+        <f t="shared" si="9"/>
+        <v>-1.3748900000000002</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>0.67847999999999997</v>
+        <v>1.584234288</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>0.61063199999999995</v>
+        <v>1.4258108592000001</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>0.74632799999999999</v>
+        <v>1.7426577168000001</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -6151,25 +6268,27 @@
       <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.47693999999999998</v>
+        <v>0.67847999999999997</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>-0.42924599999999996</v>
+        <v>0.61063199999999995</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>-0.52463400000000004</v>
+        <v>0.74632799999999999</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -6177,27 +6296,25 @@
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>484.7595334326262</v>
+        <v>-0.47693999999999998</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>436.28358008936357</v>
+        <v>-0.42924599999999996</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>533.23548677588883</v>
+        <v>-0.52463400000000004</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -6205,26 +6322,27 @@
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J21" s="6"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>6.1901145644560005</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>484.7595334326262</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>5.5711031080104005</v>
+        <v>436.28358008936357</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>6.8091260209016014</v>
+        <v>533.23548677588883</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -6232,25 +6350,26 @@
       <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>1.5975999999999999</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>6.1901145644560005</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D37" si="8">C23*0.9</f>
-        <v>1.43784</v>
+        <f>C23*0.9</f>
+        <v>5.5711031080104005</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E37" si="9">C23*1.1</f>
-        <v>1.75736</v>
+        <f>C23*1.1</f>
+        <v>6.8091260209016014</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -6258,24 +6377,25 @@
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>3.0227999999999999E-4</v>
+        <v>1.5975999999999999</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
-        <v>2.72052E-4</v>
+        <f t="shared" ref="D24:D38" si="10">C24*0.9</f>
+        <v>1.43784</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="9"/>
-        <v>3.3250800000000002E-4</v>
+        <f t="shared" ref="E24:E38" si="11">C24*1.1</f>
+        <v>1.75736</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -6286,21 +6406,21 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>1.3290999999999999</v>
+        <v>3.0227999999999999E-4</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
-        <v>1.1961900000000001</v>
+        <f t="shared" si="10"/>
+        <v>2.72052E-4</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="9"/>
-        <v>1.46201</v>
+        <f t="shared" si="11"/>
+        <v>3.3250800000000002E-4</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -6311,21 +6431,21 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>7.9394999999999998</v>
+        <v>1.3290999999999999</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
-        <v>7.1455500000000001</v>
+        <f t="shared" si="10"/>
+        <v>1.1961900000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="9"/>
-        <v>8.7334500000000013</v>
+        <f t="shared" si="11"/>
+        <v>1.46201</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -6333,25 +6453,24 @@
       <c r="G26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>31.053000000000001</v>
+        <v>7.9394999999999998</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
-        <v>27.947700000000001</v>
+        <f t="shared" si="10"/>
+        <v>7.1455500000000001</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="9"/>
-        <v>34.158300000000004</v>
+        <f t="shared" si="11"/>
+        <v>8.7334500000000013</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -6359,24 +6478,25 @@
       <c r="G27" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>0.12414</v>
+        <v>31.053000000000001</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>0.11172600000000001</v>
+        <f t="shared" si="10"/>
+        <v>27.947700000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
-        <v>0.13655400000000001</v>
+        <f t="shared" si="11"/>
+        <v>34.158300000000004</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -6387,21 +6507,21 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>1.5624</v>
+        <v>0.12414</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4061600000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.11172600000000001</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7186400000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.13655400000000001</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -6412,21 +6532,21 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>0.47693999999999998</v>
+        <v>1.5624</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
-        <v>0.42924599999999996</v>
+        <f t="shared" si="10"/>
+        <v>1.4061600000000001</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
-        <v>0.52463400000000004</v>
+        <f t="shared" si="11"/>
+        <v>1.7186400000000002</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -6434,25 +6554,24 @@
       <c r="G30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>2.9998</v>
+        <v>0.47693999999999998</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
-        <v>2.6998199999999999</v>
+        <f t="shared" si="10"/>
+        <v>0.42924599999999996</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="9"/>
-        <v>3.2997800000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.52463400000000004</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -6464,21 +6583,21 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>81893</v>
+        <v>2.9998</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
-        <v>73703.7</v>
+        <f t="shared" si="10"/>
+        <v>2.6998199999999999</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="9"/>
-        <v>90082.3</v>
+        <f t="shared" si="11"/>
+        <v>3.2997800000000002</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -6490,21 +6609,21 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>0.94164000000000003</v>
+        <v>81893</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
-        <v>0.84747600000000001</v>
+        <f t="shared" si="10"/>
+        <v>73703.7</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0358040000000002</v>
+        <f t="shared" si="11"/>
+        <v>90082.3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -6512,25 +6631,25 @@
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>0.41977999999999999</v>
+        <v>0.94164000000000003</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="8"/>
-        <v>0.37780199999999997</v>
+        <f t="shared" si="10"/>
+        <v>0.84747600000000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="9"/>
-        <v>0.461758</v>
+        <f t="shared" si="11"/>
+        <v>1.0358040000000002</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -6538,24 +6657,25 @@
       <c r="G34" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>6.6032999999999994E-2</v>
+        <v>0.41977999999999999</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="8"/>
-        <v>5.9429699999999995E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.37780199999999997</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="9"/>
-        <v>7.2636300000000001E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.461758</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -6563,25 +6683,24 @@
       <c r="G35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>6.4337000000000005E-2</v>
+        <v>6.6032999999999994E-2</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="8"/>
-        <v>5.7903300000000005E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.9429699999999995E-2</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="9"/>
-        <v>7.0770700000000006E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.2636300000000001E-2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -6589,24 +6708,25 @@
       <c r="G36" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>0.11946</v>
+        <v>6.4337000000000005E-2</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="8"/>
-        <v>0.107514</v>
+        <f t="shared" si="10"/>
+        <v>5.7903300000000005E-2</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="9"/>
-        <v>0.131406</v>
+        <f t="shared" si="11"/>
+        <v>7.0770700000000006E-2</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -6617,21 +6737,21 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>0.67847999999999997</v>
+        <v>0.11946</v>
       </c>
       <c r="D38" s="2">
-        <f>C38*0.9</f>
-        <v>0.61063199999999995</v>
+        <f t="shared" si="10"/>
+        <v>0.107514</v>
       </c>
       <c r="E38" s="2">
-        <f>C38*1.1</f>
-        <v>0.74632799999999999</v>
+        <f t="shared" si="11"/>
+        <v>0.131406</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -6642,21 +6762,21 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>0.36864999999999998</v>
+        <v>0.67847999999999997</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="10">C39*0.9</f>
-        <v>0.331785</v>
+        <f>C39*0.9</f>
+        <v>0.61063199999999995</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="11">C39*1.1</f>
-        <v>0.40551500000000001</v>
+        <f>C39*1.1</f>
+        <v>0.74632799999999999</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -6667,21 +6787,21 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>0.12917000000000001</v>
+        <v>0.36864999999999998</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="12">C40*0.9</f>
-        <v>0.11625300000000001</v>
+        <v>0.331785</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="13">C40*1.1</f>
-        <v>0.14208700000000002</v>
+        <v>0.40551500000000001</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -6692,42 +6812,56 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>0.22303999999999999</v>
+        <v>0.12917000000000001</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="14">C41*0.9</f>
-        <v>0.200736</v>
+        <v>0.11625300000000001</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="15">C41*1.1</f>
+        <v>0.14208700000000002</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.22303999999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="16">C42*0.9</f>
+        <v>0.200736</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="17">C42*1.1</f>
         <v>0.24534400000000001</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N44" s="10"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N45" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K47" s="13"/>
@@ -6751,31 +6885,39 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
     </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-    </row>
-    <row r="52" spans="7:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="G52" s="6"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-    </row>
-    <row r="55" spans="7:19" x14ac:dyDescent="0.2">
-      <c r="N55" s="7"/>
+    <row r="49" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+    </row>
+    <row r="51" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+    </row>
+    <row r="53" spans="7:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="G53" s="6"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
     </row>
     <row r="56" spans="7:19" x14ac:dyDescent="0.2">
       <c r="N56" s="7"/>
@@ -6785,6 +6927,9 @@
     </row>
     <row r="58" spans="7:19" x14ac:dyDescent="0.2">
       <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="7:19" x14ac:dyDescent="0.2">
+      <c r="N59" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6794,10 +6939,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6895,11 +7040,11 @@
         <v>4.5494999999999997E-5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
+        <f t="shared" ref="D4:D16" si="2">C4*0.9</f>
         <v>4.0945499999999996E-5</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
+        <f t="shared" ref="E4:E16" si="3">C4*1.1</f>
         <v>5.0044499999999998E-5</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -7042,7 +7187,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4">
-        <f>0.000000014828/20+19/20*C24</f>
+        <f>0.000000014828/20+19/20*C25</f>
         <v>8.9441650000000002E-10</v>
       </c>
       <c r="D10" s="2">
@@ -7137,97 +7282,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4">
+        <v>3.4712944999999998E-7</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="8">C14*0.9</f>
+        <v>3.1241650499999996E-7</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="9">C14*1.1</f>
+        <v>3.8184239499999999E-7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4">
         <v>7.8932000000000003E-7</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>7.1038799999999999E-7</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>8.6825200000000006E-7</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>9.2182999999999999E-8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>8.2964699999999999E-8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>1.0140130000000001E-7</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.000000048973*115.03/245.41</f>
         <v>-2.2954908887168412E-8</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="10">C17*0.9</f>
         <v>-2.0659417998451572E-8</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="11">C17*1.1</f>
         <v>-2.5250399775885256E-8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4">
-        <v>-6.1237999999999996E-8</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>-5.5114199999999997E-8</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="9"/>
-        <v>-6.7361800000000007E-8</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1</v>
@@ -7238,46 +7383,46 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.3692372586334518E-7</v>
+      <c r="C18" s="4">
+        <v>-6.1237999999999996E-8</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>1.2323135327701067E-7</v>
+        <f t="shared" si="10"/>
+        <v>-5.5114199999999997E-8</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>1.5061609844967972E-7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <f t="shared" si="11"/>
+        <v>-6.7361800000000007E-8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4">
-        <v>2.0158000000000001E-8</v>
+      <c r="C19" s="2">
+        <v>1.3692372586334518E-7</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.8142200000000002E-8</v>
+        <v>1.2323135327701067E-7</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>2.2173800000000003E-8</v>
+        <v>1.5061609844967972E-7</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -7288,21 +7433,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="4">
-        <v>-6.4204E-7</v>
+        <v>2.0158000000000001E-8</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20" si="10">C20*0.9</f>
-        <v>-5.7783600000000004E-7</v>
+        <f>C20*0.9</f>
+        <v>1.8142200000000002E-8</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ref="E20" si="11">C20*1.1</f>
-        <v>-7.0624400000000006E-7</v>
+        <f>C20*1.1</f>
+        <v>2.2173800000000003E-8</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -7313,22 +7458,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>2.2341083526699671E-5</v>
+      <c r="C21" s="4">
+        <v>-6.4204E-7</v>
       </c>
       <c r="D21" s="2">
-        <f>C21*0.9</f>
-        <v>2.0106975174029706E-5</v>
+        <f t="shared" ref="D21" si="12">C21*0.9</f>
+        <v>-5.7783600000000004E-7</v>
       </c>
       <c r="E21" s="2">
-        <f>C21*1.1</f>
-        <v>2.457519187936964E-5</v>
+        <f t="shared" ref="E21" si="13">C21*1.1</f>
+        <v>-7.0624400000000006E-7</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -7339,22 +7483,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>1.374618047989E-6</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>2.2341083526699671E-5</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>1.2371562431901E-6</v>
+        <v>2.0106975174029706E-5</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>1.5120798527879002E-6</v>
+        <v>2.457519187936964E-5</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -7365,21 +7509,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.4991E-7</v>
+      <c r="C23" s="2">
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>1.374618047989E-6</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="12">C23*0.9</f>
-        <v>1.3491899999999999E-7</v>
+        <f>C23*0.9</f>
+        <v>1.2371562431901E-6</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="13">C23*1.1</f>
-        <v>1.64901E-7</v>
+        <f>C23*1.1</f>
+        <v>1.5120798527879002E-6</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -7390,21 +7535,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4">
-        <v>1.6106999999999999E-10</v>
+        <v>1.4991E-7</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4496300000000001E-10</v>
+        <f t="shared" ref="D24:D39" si="14">C24*0.9</f>
+        <v>1.3491899999999999E-7</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="13"/>
-        <v>1.77177E-10</v>
+        <f t="shared" ref="E24:E39" si="15">C24*1.1</f>
+        <v>1.64901E-7</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -7415,21 +7560,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="4">
-        <v>1.4737999999999999E-7</v>
+        <v>1.6106999999999999E-10</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="12"/>
-        <v>1.32642E-7</v>
+        <f t="shared" si="14"/>
+        <v>1.4496300000000001E-10</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="13"/>
-        <v>1.62118E-7</v>
+        <f t="shared" si="15"/>
+        <v>1.77177E-10</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -7440,21 +7585,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="4">
-        <v>3.0492000000000001E-7</v>
+        <v>1.4737999999999999E-7</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="12"/>
-        <v>2.74428E-7</v>
+        <f t="shared" si="14"/>
+        <v>1.32642E-7</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="13"/>
-        <v>3.3541200000000001E-7</v>
+        <f t="shared" si="15"/>
+        <v>1.62118E-7</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -7465,21 +7610,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4">
-        <v>3.7824E-6</v>
+        <v>3.0492000000000001E-7</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="12"/>
-        <v>3.4041600000000001E-6</v>
+        <f t="shared" si="14"/>
+        <v>2.74428E-7</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="13"/>
-        <v>4.1606400000000007E-6</v>
+        <f t="shared" si="15"/>
+        <v>3.3541200000000001E-7</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -7490,21 +7635,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="4">
-        <v>1.5302E-8</v>
+        <v>3.7824E-6</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="12"/>
-        <v>1.37718E-8</v>
+        <f t="shared" si="14"/>
+        <v>3.4041600000000001E-6</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="13"/>
-        <v>1.6832200000000002E-8</v>
+        <f t="shared" si="15"/>
+        <v>4.1606400000000007E-6</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -7515,21 +7660,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="4">
-        <v>1.801E-6</v>
+        <v>1.5302E-8</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6209E-6</v>
+        <f t="shared" si="14"/>
+        <v>1.37718E-8</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="13"/>
-        <v>1.9811E-6</v>
+        <f t="shared" si="15"/>
+        <v>1.6832200000000002E-8</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -7540,21 +7685,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="4">
-        <v>6.4204E-7</v>
+        <v>1.801E-6</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="12"/>
-        <v>5.7783600000000004E-7</v>
+        <f t="shared" si="14"/>
+        <v>1.6209E-6</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="13"/>
-        <v>7.0624400000000006E-7</v>
+        <f t="shared" si="15"/>
+        <v>1.9811E-6</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -7565,21 +7710,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="4">
-        <v>8.8093999999999995E-8</v>
+        <v>6.4204E-7</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="12"/>
-        <v>7.9284600000000003E-8</v>
+        <f t="shared" si="14"/>
+        <v>5.7783600000000004E-7</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="13"/>
-        <v>9.6903399999999999E-8</v>
+        <f t="shared" si="15"/>
+        <v>7.0624400000000006E-7</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -7590,21 +7735,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="2">
-        <v>3.7726000000000001E-3</v>
+      <c r="C32" s="4">
+        <v>8.8093999999999995E-8</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="12"/>
-        <v>3.3953400000000002E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.9284600000000003E-8</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="13"/>
-        <v>4.14986E-3</v>
+        <f t="shared" si="15"/>
+        <v>9.6903399999999999E-8</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -7615,21 +7760,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="4">
-        <v>5.7080999999999996E-7</v>
+      <c r="C33" s="2">
+        <v>3.7726000000000001E-3</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="12"/>
-        <v>5.1372900000000001E-7</v>
+        <f t="shared" si="14"/>
+        <v>3.3953400000000002E-3</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="13"/>
-        <v>6.2789100000000002E-7</v>
+        <f t="shared" si="15"/>
+        <v>4.14986E-3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -7640,21 +7785,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="4">
-        <v>1.092E-8</v>
+        <v>5.7080999999999996E-7</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="12"/>
-        <v>9.8280000000000004E-9</v>
+        <f t="shared" si="14"/>
+        <v>5.1372900000000001E-7</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="13"/>
-        <v>1.2012E-8</v>
+        <f t="shared" si="15"/>
+        <v>6.2789100000000002E-7</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -7665,21 +7810,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="4">
-        <v>4.8915999999999999E-9</v>
+        <v>1.092E-8</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="12"/>
-        <v>4.4024399999999999E-9</v>
+        <f t="shared" si="14"/>
+        <v>9.8280000000000004E-9</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="13"/>
-        <v>5.3807600000000008E-9</v>
+        <f t="shared" si="15"/>
+        <v>1.2012E-8</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -7690,21 +7835,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="4">
-        <v>5.0106999999999997E-9</v>
+        <v>4.8915999999999999E-9</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="12"/>
-        <v>4.5096299999999999E-9</v>
+        <f t="shared" si="14"/>
+        <v>4.4024399999999999E-9</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="13"/>
-        <v>5.5117700000000003E-9</v>
+        <f t="shared" si="15"/>
+        <v>5.3807600000000008E-9</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -7715,21 +7860,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="4">
-        <v>8.8386000000000005E-9</v>
+        <v>5.0106999999999997E-9</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="12"/>
-        <v>7.9547400000000006E-9</v>
+        <f t="shared" si="14"/>
+        <v>4.5096299999999999E-9</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="13"/>
-        <v>9.722460000000002E-9</v>
+        <f t="shared" si="15"/>
+        <v>5.5117700000000003E-9</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -7740,21 +7885,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="4">
-        <v>2.0158000000000001E-8</v>
+        <v>8.8386000000000005E-9</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="12"/>
-        <v>1.8142200000000002E-8</v>
+        <f t="shared" si="14"/>
+        <v>7.9547400000000006E-9</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="13"/>
-        <v>2.2173800000000003E-8</v>
+        <f t="shared" si="15"/>
+        <v>9.722460000000002E-9</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -7765,21 +7910,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="4">
-        <v>6.4977000000000003E-7</v>
+        <v>2.0158000000000001E-8</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="14">C39*0.9</f>
-        <v>5.8479300000000001E-7</v>
+        <f t="shared" si="14"/>
+        <v>1.8142200000000002E-8</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="15">C39*1.1</f>
-        <v>7.1474700000000004E-7</v>
+        <f t="shared" si="15"/>
+        <v>2.2173800000000003E-8</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -7790,21 +7935,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="4">
-        <v>1.6986000000000001E-8</v>
+        <v>6.4977000000000003E-7</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="16">C40*0.9</f>
-        <v>1.5287400000000002E-8</v>
+        <v>5.8479300000000001E-7</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="17">C40*1.1</f>
-        <v>1.8684600000000003E-8</v>
+        <v>7.1474700000000004E-7</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -7815,26 +7960,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="4">
-        <v>6.0605E-7</v>
+        <v>1.6986000000000001E-8</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="18">C41*0.9</f>
-        <v>5.4544499999999997E-7</v>
+        <v>1.5287400000000002E-8</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="19">C41*1.1</f>
+        <v>1.8684600000000003E-8</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6.0605E-7</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="20">C42*0.9</f>
+        <v>5.4544499999999997E-7</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="21">C42*1.1</f>
         <v>6.6665500000000004E-7</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7846,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7947,11 +8117,11 @@
         <v>2.5206</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
+        <f t="shared" ref="D4:D16" si="2">C4*0.9</f>
         <v>2.2685400000000002</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
+        <f t="shared" ref="E4:E16" si="3">C4*1.1</f>
         <v>2.7726600000000001</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -8094,7 +8264,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="4">
-        <f>0.00099355/20+19/20*C24</f>
+        <f>0.00099355/20+19/20*C25</f>
         <v>5.0386599E-5</v>
       </c>
       <c r="D10" s="2">
@@ -8189,97 +8359,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2">
+        <v>2.3367113000000001E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="8">C14*0.9</f>
+        <v>2.1030401700000002E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="9">C14*1.1</f>
+        <v>2.5703824300000004E-3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
         <v>3.3971000000000001E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>3.0573900000000001E-3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>3.7368100000000006E-3</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>3.0016999999999999E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>2.7015300000000002E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>3.3018700000000002E-3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.0022275*115.03/245.41</f>
         <v>-1.0440867324069923E-3</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="10">C17*0.9</f>
         <v>-9.3967805916629306E-4</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="11">C17*1.1</f>
         <v>-1.1484954056476917E-3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-4.4519E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>-4.0067100000000001E-3</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="9"/>
-        <v>-4.8970900000000006E-3</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -8290,21 +8460,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>1.1151547884768684E-3</v>
+        <v>-4.4519E-3</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>1.0036393096291816E-3</v>
+        <f t="shared" si="10"/>
+        <v>-4.0067100000000001E-3</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>1.2266702673245553E-3</v>
+        <f t="shared" si="11"/>
+        <v>-4.8970900000000006E-3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -8315,21 +8485,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>1.5334000000000001E-3</v>
+        <v>1.1151547884768684E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.38006E-3</v>
+        <v>1.0036393096291816E-3</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>1.6867400000000002E-3</v>
+        <v>1.2266702673245553E-3</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -8340,21 +8510,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>-1.9456E-3</v>
+        <v>1.5334000000000001E-3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>-1.7510400000000001E-3</v>
+        <v>1.38006E-3</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>-2.1401600000000003E-3</v>
+        <v>1.6867400000000002E-3</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -8365,22 +8535,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>6.7353796512687483</v>
+        <v>-1.9456E-3</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>6.0618416861418734</v>
+        <v>-1.7510400000000001E-3</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>7.4089176163956241</v>
+        <v>-2.1401600000000003E-3</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -8391,22 +8560,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>2.9472013343833998E-2</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>6.7353796512687483</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>2.6524812009450598E-2</v>
+        <v>6.0618416861418734</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>3.2419214678217401E-2</v>
+        <v>7.4089176163956241</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -8417,21 +8586,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0350000000000004E-3</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>2.9472013343833998E-2</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
-        <v>4.5315000000000008E-3</v>
+        <f>C23*0.9</f>
+        <v>2.6524812009450598E-2</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
-        <v>5.5385000000000009E-3</v>
+        <f>C23*1.1</f>
+        <v>3.2419214678217401E-2</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -8442,21 +8612,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
-        <v>7.4641999999999998E-7</v>
+      <c r="C24" s="2">
+        <v>5.0350000000000004E-3</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>6.71778E-7</v>
+        <f t="shared" ref="D24:D39" si="12">C24*0.9</f>
+        <v>4.5315000000000008E-3</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="11"/>
-        <v>8.2106200000000008E-7</v>
+        <f t="shared" ref="E24:E39" si="13">C24*1.1</f>
+        <v>5.5385000000000009E-3</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -8467,21 +8637,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2">
-        <v>4.3090000000000003E-3</v>
+      <c r="C25" s="4">
+        <v>7.4641999999999998E-7</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>3.8781000000000002E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.71778E-7</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>4.7399000000000009E-3</v>
+        <f t="shared" si="13"/>
+        <v>8.2106200000000008E-7</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -8492,21 +8662,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>0.11305999999999999</v>
+        <v>4.3090000000000003E-3</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>0.101754</v>
+        <f t="shared" si="12"/>
+        <v>3.8781000000000002E-3</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>0.124366</v>
+        <f t="shared" si="13"/>
+        <v>4.7399000000000009E-3</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -8517,21 +8687,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>8.1471000000000002E-2</v>
+        <v>0.11305999999999999</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>7.3323899999999997E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.101754</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>8.9618100000000006E-2</v>
+        <f t="shared" si="13"/>
+        <v>0.124366</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -8542,21 +8712,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>3.1377E-4</v>
+        <v>8.1471000000000002E-2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>2.8239300000000003E-4</v>
+        <f t="shared" si="12"/>
+        <v>7.3323899999999997E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>3.4514700000000002E-4</v>
+        <f t="shared" si="13"/>
+        <v>8.9618100000000006E-2</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -8567,21 +8737,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>5.2544999999999996E-3</v>
+        <v>3.1377E-4</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>4.7290499999999994E-3</v>
+        <f t="shared" si="12"/>
+        <v>2.8239300000000003E-4</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>5.7799499999999998E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.4514700000000002E-4</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -8592,21 +8762,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>1.9456E-3</v>
+        <v>5.2544999999999996E-3</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>1.7510400000000001E-3</v>
+        <f t="shared" si="12"/>
+        <v>4.7290499999999994E-3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>2.1401600000000003E-3</v>
+        <f t="shared" si="13"/>
+        <v>5.7799499999999998E-3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -8617,21 +8787,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="2">
-        <v>7.6182999999999997E-3</v>
+        <v>1.9456E-3</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>6.8564699999999999E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.7510400000000001E-3</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>8.3801299999999995E-3</v>
+        <f t="shared" si="13"/>
+        <v>2.1401600000000003E-3</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -8642,21 +8812,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="2">
-        <v>1143.7</v>
+        <v>7.6182999999999997E-3</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>1029.3300000000002</v>
+        <f t="shared" si="12"/>
+        <v>6.8564699999999999E-3</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>1258.0700000000002</v>
+        <f t="shared" si="13"/>
+        <v>8.3801299999999995E-3</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -8667,21 +8837,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2">
-        <v>2.3601999999999998E-3</v>
+        <v>1143.7</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>2.1241799999999998E-3</v>
+        <f t="shared" si="12"/>
+        <v>1029.3300000000002</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>2.5962199999999998E-3</v>
+        <f t="shared" si="13"/>
+        <v>1258.0700000000002</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -8692,21 +8862,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="2">
-        <v>9.9635999999999995E-4</v>
+        <v>2.3601999999999998E-3</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>8.96724E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.1241799999999998E-3</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0959960000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>2.5962199999999998E-3</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -8717,21 +8887,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="4">
-        <v>7.2872000000000003E-5</v>
+      <c r="C35" s="2">
+        <v>9.9635999999999995E-4</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>6.5584800000000003E-5</v>
+        <f t="shared" si="12"/>
+        <v>8.96724E-4</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>8.0159200000000003E-5</v>
+        <f t="shared" si="13"/>
+        <v>1.0959960000000001E-3</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -8742,21 +8912,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="4">
-        <v>3.9544E-5</v>
+        <v>7.2872000000000003E-5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>3.5589600000000002E-5</v>
+        <f t="shared" si="12"/>
+        <v>6.5584800000000003E-5</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>4.3498400000000004E-5</v>
+        <f t="shared" si="13"/>
+        <v>8.0159200000000003E-5</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -8767,21 +8937,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="2">
-        <v>1.6155999999999999E-4</v>
+      <c r="C37" s="4">
+        <v>3.9544E-5</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>1.4540399999999999E-4</v>
+        <f t="shared" si="12"/>
+        <v>3.5589600000000002E-5</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.7771600000000002E-4</v>
+        <f t="shared" si="13"/>
+        <v>4.3498400000000004E-5</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -8792,21 +8962,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="2">
-        <v>1.5334000000000001E-3</v>
+        <v>1.6155999999999999E-4</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>1.38006E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.4540399999999999E-4</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>1.6867400000000002E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.7771600000000002E-4</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -8817,21 +8987,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="2">
-        <v>1.82E-3</v>
+        <v>1.5334000000000001E-3</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="12">C39*0.9</f>
-        <v>1.6380000000000001E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.38006E-3</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="13">C39*1.1</f>
-        <v>2.0020000000000003E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.6867400000000002E-3</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -8842,21 +9012,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>1.655E-3</v>
+        <v>1.82E-3</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="14">C40*0.9</f>
-        <v>1.4894999999999999E-3</v>
+        <v>1.6380000000000001E-3</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="15">C40*1.1</f>
-        <v>1.8205000000000001E-3</v>
+        <v>2.0020000000000003E-3</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -8867,26 +9037,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="2">
-        <v>1.3914000000000001E-3</v>
+        <v>1.655E-3</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="16">C41*0.9</f>
-        <v>1.25226E-3</v>
+        <v>1.4894999999999999E-3</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>1.8205000000000001E-3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.3914000000000001E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="18">C42*0.9</f>
+        <v>1.25226E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="19">C42*1.1</f>
         <v>1.5305400000000002E-3</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8898,10 +9093,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8998,11 +9193,11 @@
         <v>90.241</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
+        <f t="shared" ref="D4:D16" si="2">C4*0.9</f>
         <v>81.216899999999995</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
+        <f t="shared" ref="E4:E16" si="3">C4*1.1</f>
         <v>99.265100000000004</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -9145,7 +9340,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="4">
-        <f>0.03472/20+19/20*C24</f>
+        <f>0.03472/20+19/20*C25</f>
         <v>1.7418828750000001E-3</v>
       </c>
       <c r="D10" s="2">
@@ -9240,97 +9435,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2">
+        <v>1.2705640000000001E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="8">C14*0.9</f>
+        <v>1.1435076000000001E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="9">C14*1.1</f>
+        <v>1.3976204000000002E-2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
         <v>7.0044E-3</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>6.3039599999999999E-3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>7.704840000000001E-3</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>1.0029E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>9.0261000000000004E-3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>1.1031900000000001E-2</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-0.0063641*115.03/245.41</f>
         <v>-2.9830179006560451E-3</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="10">C17*0.9</f>
         <v>-2.6847161105904406E-3</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="11">C17*1.1</f>
         <v>-3.28131969072165E-3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-3.6741999999999997E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>-3.3067800000000001E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="9"/>
-        <v>-4.0416199999999999E-2</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -9341,21 +9536,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>1.4452397385053379E-3</v>
+        <v>-3.6741999999999997E-2</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>1.3007157646548041E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.3067800000000001E-2</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>1.5897637123558719E-3</v>
+        <f t="shared" si="11"/>
+        <v>-4.0416199999999999E-2</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -9366,21 +9561,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>1.1245999999999999E-3</v>
+        <v>1.4452397385053379E-3</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.0121399999999999E-3</v>
+        <v>1.3007157646548041E-3</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>1.2370599999999999E-3</v>
+        <v>1.5897637123558719E-3</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -9391,21 +9586,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>-6.9251999999999996E-4</v>
+        <v>1.1245999999999999E-3</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>-6.2326799999999996E-4</v>
+        <v>1.0121399999999999E-3</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>-7.6177199999999997E-4</v>
+        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -9416,22 +9611,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>1.6167729144938956</v>
+        <v>-6.9251999999999996E-4</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>1.455095623044506</v>
+        <v>-6.2326799999999996E-4</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>1.7784502059432854</v>
+        <v>-7.6177199999999997E-4</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -9442,22 +9636,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>0.28737637441445002</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>1.6167729144938956</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>0.25863873697300505</v>
+        <v>1.455095623044506</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>0.31611401185589505</v>
+        <v>1.7784502059432854</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -9468,21 +9662,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2">
-        <v>1.1164E-2</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>0.28737637441445002</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
-        <v>1.00476E-2</v>
+        <f>C23*0.9</f>
+        <v>0.25863873697300505</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
-        <v>1.2280400000000002E-2</v>
+        <f>C23*1.1</f>
+        <v>0.31611401185589505</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -9493,21 +9688,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4">
-        <v>6.1924999999999996E-6</v>
+      <c r="C24" s="2">
+        <v>1.1164E-2</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5732499999999995E-6</v>
+        <f t="shared" ref="D24:D39" si="12">C24*0.9</f>
+        <v>1.00476E-2</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="11"/>
-        <v>6.8117500000000005E-6</v>
+        <f t="shared" ref="E24:E39" si="13">C24*1.1</f>
+        <v>1.2280400000000002E-2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -9518,21 +9713,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
-        <v>6.2976000000000004E-2</v>
+      <c r="C25" s="4">
+        <v>6.1924999999999996E-6</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>5.6678400000000004E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.5732499999999995E-6</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>6.9273600000000005E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.8117500000000005E-6</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -9543,21 +9738,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>0.10345</v>
+        <v>6.2976000000000004E-2</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>9.3105000000000007E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.6678400000000004E-2</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>0.11379500000000001</v>
+        <f t="shared" si="13"/>
+        <v>6.9273600000000005E-2</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -9568,21 +9763,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>3.1156000000000001</v>
+        <v>0.10345</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>2.8040400000000001</v>
+        <f t="shared" si="12"/>
+        <v>9.3105000000000007E-2</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>3.4271600000000007</v>
+        <f t="shared" si="13"/>
+        <v>0.11379500000000001</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -9593,21 +9788,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>1.5154E-4</v>
+        <v>3.1156000000000001</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>1.3638600000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.8040400000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>1.6669400000000003E-4</v>
+        <f t="shared" si="13"/>
+        <v>3.4271600000000007</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -9618,21 +9813,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>2.6273999999999998E-3</v>
+        <v>1.5154E-4</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>2.3646599999999998E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.3638600000000001E-4</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>2.8901399999999998E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.6669400000000003E-4</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -9643,21 +9838,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>6.9251999999999996E-4</v>
+        <v>2.6273999999999998E-3</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>6.2326799999999996E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.3646599999999998E-3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>7.6177199999999997E-4</v>
+        <f t="shared" si="13"/>
+        <v>2.8901399999999998E-3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -9668,21 +9863,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>8.2915000000000003E-3</v>
+        <v>6.9251999999999996E-4</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>7.4623500000000004E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.2326799999999996E-4</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>9.120650000000001E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.6177199999999997E-4</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -9693,21 +9888,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>273.49</v>
+        <v>8.2915000000000003E-3</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>246.14100000000002</v>
+        <f t="shared" si="12"/>
+        <v>7.4623500000000004E-3</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>300.83900000000006</v>
+        <f t="shared" si="13"/>
+        <v>9.120650000000001E-3</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -9718,21 +9913,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>5.1836E-3</v>
+        <v>273.49</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>4.6652400000000002E-3</v>
+        <f t="shared" si="12"/>
+        <v>246.14100000000002</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>5.7019600000000007E-3</v>
+        <f t="shared" si="13"/>
+        <v>300.83900000000006</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -9743,21 +9938,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>7.0381999999999997E-4</v>
+        <v>5.1836E-3</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>6.3343799999999995E-4</v>
+        <f t="shared" si="12"/>
+        <v>4.6652400000000002E-3</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>7.7420199999999998E-4</v>
+        <f t="shared" si="13"/>
+        <v>5.7019600000000007E-3</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -9768,21 +9963,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="2">
-        <v>4.1813000000000001E-4</v>
+        <v>7.0381999999999997E-4</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>3.7631700000000004E-4</v>
+        <f t="shared" si="12"/>
+        <v>6.3343799999999995E-4</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>4.5994300000000004E-4</v>
+        <f t="shared" si="13"/>
+        <v>7.7420199999999998E-4</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -9793,21 +9988,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="4">
-        <v>2.7064E-5</v>
+      <c r="C36" s="2">
+        <v>4.1813000000000001E-4</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>2.4357600000000002E-5</v>
+        <f t="shared" si="12"/>
+        <v>3.7631700000000004E-4</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>2.9770400000000002E-5</v>
+        <f t="shared" si="13"/>
+        <v>4.5994300000000004E-4</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -9818,21 +10013,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="2">
-        <v>1.209E-4</v>
+      <c r="C37" s="4">
+        <v>2.7064E-5</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0881E-4</v>
+        <f t="shared" si="12"/>
+        <v>2.4357600000000002E-5</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3299000000000001E-4</v>
+        <f t="shared" si="13"/>
+        <v>2.9770400000000002E-5</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -9843,21 +10038,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>1.1245999999999999E-3</v>
+        <v>1.209E-4</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0121399999999999E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.0881E-4</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>1.2370599999999999E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.3299000000000001E-4</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -9868,21 +10063,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C39" s="2">
-        <v>5.3932000000000003E-4</v>
+        <v>1.1245999999999999E-3</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="12">C39*0.9</f>
-        <v>4.8538800000000006E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.0121399999999999E-3</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="13">C39*1.1</f>
-        <v>5.9325200000000006E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.2370599999999999E-3</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -9893,21 +10088,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="2">
-        <v>4.6431E-4</v>
+        <v>5.3932000000000003E-4</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="14">C40*0.9</f>
-        <v>4.1787900000000002E-4</v>
+        <v>4.8538800000000006E-4</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="15">C40*1.1</f>
-        <v>5.1074099999999999E-4</v>
+        <v>5.9325200000000006E-4</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -9918,26 +10113,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="2">
-        <v>3.0446999999999999E-4</v>
+        <v>4.6431E-4</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="16">C41*0.9</f>
-        <v>2.7402299999999997E-4</v>
+        <v>4.1787900000000002E-4</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>5.1074099999999999E-4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.0446999999999999E-4</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="18">C42*0.9</f>
+        <v>2.7402299999999997E-4</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="19">C42*1.1</f>
         <v>3.3491700000000001E-4</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9949,10 +10169,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10049,11 +10269,11 @@
         <v>79229</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D15" si="2">C4*0.9</f>
+        <f t="shared" ref="D4:D16" si="2">C4*0.9</f>
         <v>71306.100000000006</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="3">C4*1.1</f>
+        <f t="shared" ref="E4:E16" si="3">C4*1.1</f>
         <v>87151.900000000009</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -10196,7 +10416,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2">
-        <f>33.458/20+19/20*C24</f>
+        <f>33.458/20+19/20*C25</f>
         <v>1.6823781499999999</v>
       </c>
       <c r="D10" s="2">
@@ -10291,97 +10511,97 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2">
+        <v>15.248377</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14" si="8">C14*0.9</f>
+        <v>13.723539300000001</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14" si="9">C14*1.1</f>
+        <v>16.7732147</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
         <v>13.228</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>11.905200000000001</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>14.550800000000001</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>14.85</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>13.365</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>16.335000000000001</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <f>-9.5931*115.03/245.41</f>
         <v>-4.4965335275661138</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="8">C16*0.9</f>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:D18" si="10">C17*0.9</f>
         <v>-4.0468801748095027</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16:E17" si="9">C16*1.1</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E18" si="11">C17*1.1</f>
         <v>-4.9461868803227258</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-62.932000000000002</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>-56.638800000000003</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="9"/>
-        <v>-69.225200000000001</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>1</v>
@@ -10392,21 +10612,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>3.5066850324341634</v>
+        <v>-62.932000000000002</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.9</f>
-        <v>3.1560165291907469</v>
+        <f t="shared" si="10"/>
+        <v>-56.638800000000003</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*1.1</f>
-        <v>3.8573535356775799</v>
+        <f t="shared" si="11"/>
+        <v>-69.225200000000001</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>1</v>
@@ -10417,21 +10637,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <v>2.1274000000000002</v>
+        <v>3.5066850324341634</v>
       </c>
       <c r="D19" s="2">
         <f>C19*0.9</f>
-        <v>1.9146600000000003</v>
+        <v>3.1560165291907469</v>
       </c>
       <c r="E19" s="2">
         <f>C19*1.1</f>
-        <v>2.3401400000000003</v>
+        <v>3.8573535356775799</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>1</v>
@@ -10442,21 +10662,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="2">
-        <v>-2.9281000000000001</v>
+        <v>2.1274000000000002</v>
       </c>
       <c r="D20" s="2">
         <f>C20*0.9</f>
-        <v>-2.6352900000000004</v>
+        <v>1.9146600000000003</v>
       </c>
       <c r="E20" s="2">
         <f>C20*1.1</f>
-        <v>-3.2209100000000004</v>
+        <v>2.3401400000000003</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>1</v>
@@ -10467,22 +10687,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2">
-        <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
-        <v>27306.325609829357</v>
+        <v>-2.9281000000000001</v>
       </c>
       <c r="D21" s="2">
         <f>C21*0.9</f>
-        <v>24575.69304884642</v>
+        <v>-2.6352900000000004</v>
       </c>
       <c r="E21" s="2">
         <f>C21*1.1</f>
-        <v>30036.958170812293</v>
+        <v>-3.2209100000000004</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>1</v>
@@ -10493,22 +10712,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="2">
-        <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
-        <v>369.46692212789992</v>
+        <f>0.147*C38+0.1222*C36+87.3/3600*C39+2.3704*C38+0.312*C37+(1000-1000*7.8/100/101.07*207.43)/1000*C32+0.9454*C25+1000*7.8/100/1000*C33/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C34+0.487*1000*7.8/100/101.07*207.43/1000*C39+2.59/1000*C35</f>
+        <v>27306.325609829357</v>
       </c>
       <c r="D22" s="2">
         <f>C22*0.9</f>
-        <v>332.52022991510995</v>
+        <v>24575.69304884642</v>
       </c>
       <c r="E22" s="2">
         <f>C22*1.1</f>
-        <v>406.41361434068995</v>
+        <v>30036.958170812293</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>1</v>
@@ -10519,21 +10738,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>14.368</v>
+        <f>0.4168*C37+3.358*C36+0.206*C38+1.6569*C38+0.4856*C37+0.0149*C39+1.2669*C37+0.7722*C24+0.6177*C25+0.0349*C26+0.136*C27+0.0834*C28+0.0973*C29+0.0088*C30+1.301*C31</f>
+        <v>369.46692212789992</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:D38" si="10">C23*0.9</f>
-        <v>12.9312</v>
+        <f>C23*0.9</f>
+        <v>332.52022991510995</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E38" si="11">C23*1.1</f>
-        <v>15.804800000000002</v>
+        <f>C23*1.1</f>
+        <v>406.41361434068995</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>1</v>
@@ -10544,21 +10764,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="2">
-        <v>9.9769999999999998E-3</v>
+        <v>14.368</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>8.9793000000000008E-3</v>
+        <f t="shared" ref="D24:D39" si="12">C24*0.9</f>
+        <v>12.9312</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="11"/>
-        <v>1.09747E-2</v>
+        <f t="shared" ref="E24:E39" si="13">C24*1.1</f>
+        <v>15.804800000000002</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -10569,21 +10789,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>61.475000000000001</v>
+        <v>9.9769999999999998E-3</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>55.327500000000001</v>
+        <f t="shared" si="12"/>
+        <v>8.9793000000000008E-3</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
-        <v>67.622500000000002</v>
+        <f t="shared" si="13"/>
+        <v>1.09747E-2</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>1</v>
@@ -10594,21 +10814,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>629.38</v>
+        <v>61.475000000000001</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="10"/>
-        <v>566.44200000000001</v>
+        <f t="shared" si="12"/>
+        <v>55.327500000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="11"/>
-        <v>692.3180000000001</v>
+        <f t="shared" si="13"/>
+        <v>67.622500000000002</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>1</v>
@@ -10619,21 +10839,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>3167.2</v>
+        <v>629.38</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="10"/>
-        <v>2850.48</v>
+        <f t="shared" si="12"/>
+        <v>566.44200000000001</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="11"/>
-        <v>3483.92</v>
+        <f t="shared" si="13"/>
+        <v>692.3180000000001</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>1</v>
@@ -10644,21 +10864,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>1.2511000000000001</v>
+        <v>3167.2</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="10"/>
-        <v>1.12599</v>
+        <f t="shared" si="12"/>
+        <v>2850.48</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="11"/>
-        <v>1.3762100000000002</v>
+        <f t="shared" si="13"/>
+        <v>3483.92</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>1</v>
@@ -10669,21 +10889,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>8.5686999999999998</v>
+        <v>1.2511000000000001</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
-        <v>7.71183</v>
+        <f t="shared" si="12"/>
+        <v>1.12599</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
-        <v>9.4255700000000004</v>
+        <f t="shared" si="13"/>
+        <v>1.3762100000000002</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -10694,21 +10914,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>2.9281000000000001</v>
+        <v>8.5686999999999998</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="10"/>
-        <v>2.6352900000000004</v>
+        <f t="shared" si="12"/>
+        <v>7.71183</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
-        <v>3.2209100000000004</v>
+        <f t="shared" si="13"/>
+        <v>9.4255700000000004</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -10719,21 +10939,21 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>17.436</v>
+        <v>2.9281000000000001</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
-        <v>15.692400000000001</v>
+        <f t="shared" si="12"/>
+        <v>2.6352900000000004</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
-        <v>19.179600000000001</v>
+        <f t="shared" si="13"/>
+        <v>3.2209100000000004</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>1</v>
@@ -10744,21 +10964,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="2">
-        <v>4638900</v>
+        <v>17.436</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
-        <v>4175010</v>
+        <f t="shared" si="12"/>
+        <v>15.692400000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
-        <v>5102790</v>
+        <f t="shared" si="13"/>
+        <v>19.179600000000001</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>1</v>
@@ -10769,21 +10989,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="2">
-        <v>8.4166000000000007</v>
+        <v>4638900</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
-        <v>7.5749400000000007</v>
+        <f t="shared" si="12"/>
+        <v>4175010</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
-        <v>9.2582600000000017</v>
+        <f t="shared" si="13"/>
+        <v>5102790</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>1</v>
@@ -10794,21 +11014,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2">
-        <v>1.4612000000000001</v>
+        <v>8.4166000000000007</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>1.31508</v>
+        <f t="shared" si="12"/>
+        <v>7.5749400000000007</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
-        <v>1.6073200000000001</v>
+        <f t="shared" si="13"/>
+        <v>9.2582600000000017</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>1</v>
@@ -10819,21 +11039,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>0.46216000000000002</v>
+        <v>1.4612000000000001</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
-        <v>0.41594400000000004</v>
+        <f t="shared" si="12"/>
+        <v>1.31508</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
-        <v>0.50837600000000005</v>
+        <f t="shared" si="13"/>
+        <v>1.6073200000000001</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>1</v>
@@ -10844,21 +11064,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="2">
-        <v>0.14749999999999999</v>
+        <v>0.46216000000000002</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
-        <v>0.13275000000000001</v>
+        <f t="shared" si="12"/>
+        <v>0.41594400000000004</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="11"/>
-        <v>0.16225000000000001</v>
+        <f t="shared" si="13"/>
+        <v>0.50837600000000005</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>1</v>
@@ -10869,21 +11089,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="2">
-        <v>0.30595</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
-        <v>0.27535500000000002</v>
+        <f t="shared" si="12"/>
+        <v>0.13275000000000001</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>0.33654500000000004</v>
+        <f t="shared" si="13"/>
+        <v>0.16225000000000001</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>1</v>
@@ -10894,21 +11114,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2">
-        <v>2.1274000000000002</v>
+        <v>0.30595</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
-        <v>1.9146600000000003</v>
+        <f t="shared" si="12"/>
+        <v>0.27535500000000002</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="11"/>
-        <v>2.3401400000000003</v>
+        <f t="shared" si="13"/>
+        <v>0.33654500000000004</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>1</v>
@@ -10919,21 +11139,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="2">
-        <v>2.2524000000000002</v>
+        <v>2.1274000000000002</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39" si="12">C39*0.9</f>
-        <v>2.0271600000000003</v>
+        <f t="shared" si="12"/>
+        <v>1.9146600000000003</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39" si="13">C39*1.1</f>
-        <v>2.4776400000000005</v>
+        <f t="shared" si="13"/>
+        <v>2.3401400000000003</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>1</v>
@@ -10944,21 +11164,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="2">
-        <v>1.9859</v>
+        <v>2.2524000000000002</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="14">C40*0.9</f>
-        <v>1.78731</v>
+        <v>2.0271600000000003</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="15">C40*1.1</f>
-        <v>2.1844900000000003</v>
+        <v>2.4776400000000005</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -10969,26 +11189,51 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="2">
-        <v>1.0441</v>
+        <v>1.9859</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" ref="D41" si="16">C41*0.9</f>
-        <v>0.93969000000000003</v>
+        <v>1.78731</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ref="E41" si="17">C41*1.1</f>
+        <v>2.1844900000000003</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.0441</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="18">C42*0.9</f>
+        <v>0.93969000000000003</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42" si="19">C42*1.1</f>
         <v>1.1485100000000001</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>0</v>
       </c>
     </row>
